--- a/biology/Botanique/Anemone_hortensis/Anemone_hortensis.xlsx
+++ b/biology/Botanique/Anemone_hortensis/Anemone_hortensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anémone des jardins (Anemone hortensis L.) est une espèce de plante herbacée vivace de la famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace herbacée  de 20 à 40 cm à tige pubescente que l'on retrouve entre 0 et 1 000 m d'altitude. La fleur est solitaire. Il y a entre 8 et 15 sépales velus à l'extérieur, 10 à 18 pétales étroits, pointus. Dans ce cas, on parle de tépales. Ils peuvent être de couleur violette, rose, rouge, ou blanche. Les feuilles inférieures sont palmées, avec de 2 à 5 lobes principaux dentés-lobés aigus à long pétiole. Les feuilles supérieures sont sessiles, en verticille, entières ou trilobées. Les fruits sont des carpelles laineux.
 			Planche botanique de 1791
@@ -550,9 +564,11 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de février à avril[1]. L'Anémone des jardins est pollinisée par le vent ou par les animaux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de février à avril. L'Anémone des jardins est pollinisée par le vent ou par les animaux.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout l'ouest et le centre du bassin méditerranéen, sauf en Espagne[1].
-On la retrouve dans les champs, les oliveraies, les vignes et les jardins[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout l'ouest et le centre du bassin méditerranéen, sauf en Espagne.
+On la retrouve dans les champs, les oliveraies, les vignes et les jardins.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Origine du nom et utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vient du Grec "anemos" qui veut dire le vent et de "hortensis", le jardin. Elle est très utilisée par les fleuristes. C'est une plante vénéneuse.
 </t>
@@ -644,7 +664,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anemone hortensis subsp. hortensis
 Anemone hortensis subsp. fulgens
